--- a/InputData/elec/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
+++ b/InputData/elec/PDiCCpDoC/Perc Decline in Cap Cost per Doubling of Cap.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\US\Updated Input Data for v1.2.4\Files\Elec\PDiCCpDoC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="24915" windowHeight="11835"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>PDiCCpDoC Perc Decline in Capacity Cost per Doubling of Capacity</t>
   </si>
@@ -23,18 +28,12 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>Wind</t>
-  </si>
-  <si>
     <t>Solar PV</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>In the U.S. dataset, we only use this variable for wind and solar PV.</t>
-  </si>
-  <si>
     <t>Other electricity sources have price declines according to a time-based</t>
   </si>
   <si>
@@ -53,9 +52,6 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -96,12 +92,42 @@
   </si>
   <si>
     <t>Bloomberg New Energy Finance Summit 2013 Keynote</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
+    <t>Rubin et al.</t>
+  </si>
+  <si>
+    <t>A review of learning rates for electricity supply technologies</t>
+  </si>
+  <si>
+    <t>https://www.andrew.cmu.edu/user/ilimade/Ines_Azevedo/papers/Rubin_2015.pdf</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>In the U.S. dataset, we only use this variable for onshore/offshore wind and solar PV.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,6 +192,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -213,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,9 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -476,12 +507,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,27 +522,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,37 +552,67 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -565,9 +626,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -577,12 +640,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -590,7 +653,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -598,7 +661,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -606,7 +669,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -614,7 +677,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4">
         <v>0.14000000000000001</v>
@@ -622,7 +685,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>0.24299999999999999</v>
@@ -630,7 +693,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -638,7 +701,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -646,7 +709,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -654,7 +717,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -662,10 +725,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
